--- a/my_exemple/optimalSR/107-周期匹配与否/工作簿1.xlsx
+++ b/my_exemple/optimalSR/107-周期匹配与否/工作簿1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_graduate\bitcraze\crazyflie-lib-python\my_exemple\optimalSR\107-周期匹配与否\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B62340F-864A-42C7-9C97-64FCAAEEC2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953E0131-B7FA-439C-9162-752AA021DC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{0FB45CFC-057F-4ED4-A1F8-7B9AB5E1976E}"/>
   </bookViews>
@@ -113,12 +113,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -150,7 +156,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -160,10 +166,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -483,7 +498,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -517,241 +532,241 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="7">
         <v>1428</v>
       </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
         <v>1422</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="7">
         <v>1428</v>
       </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
         <v>1422</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>1659</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.99</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>1409</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0.85</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1659</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.99</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>1653</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="7">
         <v>2001</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
         <v>1423</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="7">
         <v>0.71</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="7">
         <v>2001</v>
       </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
         <v>1996</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>2499</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>0.99</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>1419</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>2499</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0.99</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>2493</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="7">
         <v>3333</v>
       </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
         <v>1421</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="7">
         <v>0.43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="7">
         <v>3333</v>
       </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3327</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2844</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.85</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>4999</v>
       </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
         <v>1423</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>4999</v>
       </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>4994</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2844</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.56999999999999995</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
